--- a/biology/Zoologie/Les_Dents_de_la_mer_(série_de_films)/Les_Dents_de_la_mer_(série_de_films).xlsx
+++ b/biology/Zoologie/Les_Dents_de_la_mer_(série_de_films)/Les_Dents_de_la_mer_(série_de_films).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Dents_de_la_mer_(s%C3%A9rie_de_films)</t>
+          <t>Les_Dents_de_la_mer_(série_de_films)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Dents de la mer est une saga cinématographique américaine composée de quatre films dont le premier opus (1975) réalisé par Steven Spielberg est une adaptation du roman à succès de Peter Benchley, publié en 1974. Le succès du film a donné lieu à trois suites, dont l'accueil critique et commercial a été décroissant au fil des épisodes. En se servant du succès du premier volet, Spielberg aurait pu facilement demander à réaliser une ou plusieurs des suites. Les Studios Universal ne s'y seraient certainement pas opposés. Des Dents de la mer, il préfère ne conserver que le talent d'un des acteurs fétiches de son début de carrière, Richard Dreyfuss, avec lequel il montera en 1977, le film de science-fiction Rencontres du troisième type.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Dents_de_la_mer_(s%C3%A9rie_de_films)</t>
+          <t>Les_Dents_de_la_mer_(série_de_films)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Les Dents de la mer 2, 3 et 4</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois ans après l'épisode original, c'est finalement Jeannot Szwarc qui se charge de réaliser la suite pour le compte d'Universal Pictures, qui restera l'unique distributeur pour l'ensemble des films de la tétralogie. Dans Les Dents de la mer, 2e partie, Roy Scheider, Lorraine Gary et Murray Hamilton reprennent leurs rôles du film initial et Carl Gottlieb continue à coécrire le scénario.
-À l'époque de la sortie du film, Jeannot Szwarc, réalisateur né en France, a 39 ans passés et n'est plus à proprement parler un débutant, mais il n'a pas une grande expérience de la mise en scène de cinéma. En effet, jusque-là, il s'était spécialisé dans la réalisation d'épisodes de séries télévisées américaines. Il avait ainsi mis en scène 21 épisodes de L'Homme de fer entre 1967 et 1969. Il a aussi réalisé 20 épisodes de Night Gallery, l'émission présentée par Rod Serling et une des « suites » de La Quatrième Dimension, de 1970 à 1973. Il a également fait un épisode en deux parties pour la série Kojak en 1974[1]. Ceci démontre certainement son savoir-faire, mais ne le prédestine pas spécialement à réaliser un grand film d'auteur. Pourtant, à sa sortie, le film reçoit dans l'ensemble de bonnes critiques et engendre des recettes seulement deux fois moins élevées que son glorieux prédécesseur.
+À l'époque de la sortie du film, Jeannot Szwarc, réalisateur né en France, a 39 ans passés et n'est plus à proprement parler un débutant, mais il n'a pas une grande expérience de la mise en scène de cinéma. En effet, jusque-là, il s'était spécialisé dans la réalisation d'épisodes de séries télévisées américaines. Il avait ainsi mis en scène 21 épisodes de L'Homme de fer entre 1967 et 1969. Il a aussi réalisé 20 épisodes de Night Gallery, l'émission présentée par Rod Serling et une des « suites » de La Quatrième Dimension, de 1970 à 1973. Il a également fait un épisode en deux parties pour la série Kojak en 1974. Ceci démontre certainement son savoir-faire, mais ne le prédestine pas spécialement à réaliser un grand film d'auteur. Pourtant, à sa sortie, le film reçoit dans l'ensemble de bonnes critiques et engendre des recettes seulement deux fois moins élevées que son glorieux prédécesseur.
 En 1983, dans Les Dents de la mer 3 , Dennis Quaid reprend le rôle de Michael Brody, précédemment interprété par Chris Rebello, puis Mark Gruner. Lance Guest lui succédera dans le quatrième et dernier volet. Ce troisième volet fut réalisé en 3D (en 3D couleur, grâce à des filtres polarisants, ce qui permettait de conserver les couleurs d'origine), format alors populaire. Son titre original est d'ailleurs Jaws 3-D, transformé en Jaws 3 lors des passages à la télévision ou en VHS et DVD, l'effet 3D n'étant pas transposé sur ces formats. Son réalisateur Joe Alves avait déjà travaillé avec Steven Spielberg en 1974 sur Sugarland Express, en 1975 sur Les Dents de la mer et en 1977 sur Rencontres du troisième type. Le scénario est encore une fois coécrit par Carl Gottlieb, cette fois-ci aidé de Richard Matheson (qui avait signé auparavant le scénario du film Duel de Spielberg). Le casting de cette troisième mouture inclut Dennis Quaid (Michael Brody), Bess Armstrong (Kathryn Morgan, alias Kay), Louis Gossett, Jr. (Calvin Bouchard), Simon MacCorkindale (Philip FitzRoyce), John Putch (Sean Brody) et Lea Thompson (Kelly Ann Bokowski).
 Enfin, en 1987 sort sur les écrans Les Dents de la mer 4: la revanche, réalisé par Joseph Sargent. À 62 ans, le metteur en scène de cet épisode est un homme productif bien qu'inconnu du grand public : à l'exception de ce film, il n'a quasiment réalisé que pour la télévision américaine.
-Le film signe le retour de Lorraine Gary au sein de la tétralogie. Le casting inclut également Lance Guest (Michael Brody), Mario Van Peebles (Jake), Michael Caine (Hoagie Newcombe), Karen Young (Carla Brody), Judith Barsi (Thea Brody) et Mitchell Anderson (Sean Brody). Considéré comme le plus mauvais de la série, il figure dans les 50 premières places de la liste des 100 pires films de l'histoire du cinéma établie par les lecteurs d'Internet Movie Database[2]. En 1988, Lorraine Gary a même été nommée aux très peu enviés Razzie Awards, contre-récompenses parodiant les Oscars. La comédienne avait été proposée dans la catégorie « pire actrice », finalement « remportée » par Madonna pour Who's That Girl.
+Le film signe le retour de Lorraine Gary au sein de la tétralogie. Le casting inclut également Lance Guest (Michael Brody), Mario Van Peebles (Jake), Michael Caine (Hoagie Newcombe), Karen Young (Carla Brody), Judith Barsi (Thea Brody) et Mitchell Anderson (Sean Brody). Considéré comme le plus mauvais de la série, il figure dans les 50 premières places de la liste des 100 pires films de l'histoire du cinéma établie par les lecteurs d'Internet Movie Database. En 1988, Lorraine Gary a même été nommée aux très peu enviés Razzie Awards, contre-récompenses parodiant les Oscars. La comédienne avait été proposée dans la catégorie « pire actrice », finalement « remportée » par Madonna pour Who's That Girl.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Dents_de_la_mer_(s%C3%A9rie_de_films)</t>
+          <t>Les_Dents_de_la_mer_(série_de_films)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Une saga rentable mais déclinante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La série a bénéficié de lancements d'importance (voir tableau no 1) et fait d'importants profits au box-office (voir tableau no 2), Les Dents de la mer 2 et 3 figurant même, lors de leurs années de sortie respectives, dans le top 20 des films ayant rapporté le plus d'argent. Les critiques et le grand public se sont cependant dans l'ensemble, montrés réservés sur l'intérêt de ces suites. Les avis sur les films montrent que leur qualité artistique n'a cessé de se dégrader (voir tableau no 3) et les recettes n'ont cessé de baisser à chaque nouvel épisode (voir graphique no 4).
 En octobre 2006, la série des quatre films « Les Dents de la mer » est la 22e saga en termes de recettes aux États-Unis avec 404 millions de dollars (voir tableau no 5), la 1re étant Star Wars qui totalise, avec 6 films, près de 1 883 millions de dollars de recettes US[Passage à actualiser].
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Dents_de_la_mer_(s%C3%A9rie_de_films)</t>
+          <t>Les_Dents_de_la_mer_(série_de_films)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Distribution et personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Roy Scheider ne souhaitait pas poursuivre au-delà du 2e épisode, pensant avoir fait le tour du concept et du personnage.
 </t>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Dents_de_la_mer_(s%C3%A9rie_de_films)</t>
+          <t>Les_Dents_de_la_mer_(série_de_films)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Attaques et victimes des requins au cours de la série</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au fur et à mesure des épisodes de la saga, les attaques de requins deviennent de plus en plus invraisemblables. Dans ce domaine, Les Dents de la mer, 2e partie détient un record avec 11 attaques pour 8 morts. De même, il y a surenchère dans la manière dont le requin est tué dans l'affrontement final, frisant parfois l'inimaginable, voire le grotesque, selon certaines critiques (voir : tableau no 8).
 La chose ou la personne a été attaquée par le requin, mais s'en sort indemne
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_Dents_de_la_mer_(s%C3%A9rie_de_films)</t>
+          <t>Les_Dents_de_la_mer_(série_de_films)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,10 +670,12 @@
           <t>Les Dents de la mer 5</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre Les Dents de la mer 5 est utilisé en 1995 par le réalisateur Bruno Mattei sans l'accord des ayants droit. Le film est donc par la suite renommé Cruel Jaws.
-L'idée d'une suite officielle ou d'un reboot est évoquée en 2015 par The Hollywood Reporter[7], mais aucun projet n'a été rendu public depuis.
+L'idée d'une suite officielle ou d'un reboot est évoquée en 2015 par The Hollywood Reporter, mais aucun projet n'a été rendu public depuis.
 </t>
         </is>
       </c>
@@ -664,7 +686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Les_Dents_de_la_mer_(s%C3%A9rie_de_films)</t>
+          <t>Les_Dents_de_la_mer_(série_de_films)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,10 +704,12 @@
           <t>Suites fictives</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le film d'animation Métal hurlant (1981), on aperçoit dans le décor de New York en 2031 une publicité pour Jaws 7.
-Dans Retour vers le futur 2 (1989), quand Marty se retrouve en 2015, il est effrayé par un hologramme de requin qui est en fait une publicité pour Jaws 19. Une fausse bande-annonce de ce film fictif a été réalisée pour les 30 ans de Retour vers le futur[8].
+Dans Retour vers le futur 2 (1989), quand Marty se retrouve en 2015, il est effrayé par un hologramme de requin qui est en fait une publicité pour Jaws 19. Une fausse bande-annonce de ce film fictif a été réalisée pour les 30 ans de Retour vers le futur.
 </t>
         </is>
       </c>
